--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H2">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J2">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02669166666666667</v>
+        <v>0.380615</v>
       </c>
       <c r="N2">
-        <v>0.08007499999999999</v>
+        <v>1.141845</v>
       </c>
       <c r="O2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="P2">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="Q2">
-        <v>0.03107652918055556</v>
+        <v>1.543731684248333</v>
       </c>
       <c r="R2">
-        <v>0.279688762625</v>
+        <v>13.893585158235</v>
       </c>
       <c r="S2">
-        <v>0.0006101483446450832</v>
+        <v>0.01926351681639336</v>
       </c>
       <c r="T2">
-        <v>0.0006101483446450833</v>
+        <v>0.01926351681639336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H3">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J3">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>14.597777</v>
       </c>
       <c r="O3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="P3">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="Q3">
-        <v>5.665291825310557</v>
+        <v>19.73564789835011</v>
       </c>
       <c r="R3">
-        <v>50.98762642779501</v>
+        <v>177.620831085151</v>
       </c>
       <c r="S3">
-        <v>0.1112308394885803</v>
+        <v>0.246272062076254</v>
       </c>
       <c r="T3">
-        <v>0.1112308394885803</v>
+        <v>0.246272062076254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.164278333333334</v>
+        <v>4.055887666666667</v>
       </c>
       <c r="H4">
-        <v>3.492835</v>
+        <v>12.167663</v>
       </c>
       <c r="I4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="J4">
-        <v>0.2070506538112547</v>
+        <v>0.4763357569530485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.495181</v>
       </c>
       <c r="O4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="P4">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="Q4">
-        <v>4.849289503126111</v>
+        <v>16.89301683688922</v>
       </c>
       <c r="R4">
-        <v>43.643605528135</v>
+        <v>152.037151532003</v>
       </c>
       <c r="S4">
-        <v>0.09520966597802928</v>
+        <v>0.2108001780604012</v>
       </c>
       <c r="T4">
-        <v>0.0952096659780293</v>
+        <v>0.2108001780604012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>11.659381</v>
       </c>
       <c r="I5">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J5">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02669166666666667</v>
+        <v>0.380615</v>
       </c>
       <c r="N5">
-        <v>0.08007499999999999</v>
+        <v>1.141845</v>
       </c>
       <c r="O5">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="P5">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="Q5">
-        <v>0.1037361037305556</v>
+        <v>1.479245099771667</v>
       </c>
       <c r="R5">
-        <v>0.9336249335749999</v>
+        <v>13.313205897945</v>
       </c>
       <c r="S5">
-        <v>0.002036727190587684</v>
+        <v>0.01845881842406691</v>
       </c>
       <c r="T5">
-        <v>0.002036727190587684</v>
+        <v>0.01845881842406691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>11.659381</v>
       </c>
       <c r="I6">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J6">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>14.597777</v>
       </c>
       <c r="O6">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="P6">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="Q6">
         <v>18.91122708844856</v>
@@ -818,10 +818,10 @@
         <v>170.201043796037</v>
       </c>
       <c r="S6">
-        <v>0.3712980248271684</v>
+        <v>0.2359844944261438</v>
       </c>
       <c r="T6">
-        <v>0.3712980248271685</v>
+        <v>0.2359844944261438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>11.659381</v>
       </c>
       <c r="I7">
-        <v>0.6911527338349851</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="J7">
-        <v>0.6911527338349852</v>
+        <v>0.4564376967244237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.495181</v>
       </c>
       <c r="O7">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="P7">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="Q7">
         <v>16.18734177144011</v>
@@ -880,10 +880,10 @@
         <v>145.686075942961</v>
       </c>
       <c r="S7">
-        <v>0.3178179818172289</v>
+        <v>0.201994383874213</v>
       </c>
       <c r="T7">
-        <v>0.317817981817229</v>
+        <v>0.201994383874213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H8">
         <v>1.717255</v>
       </c>
       <c r="I8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J8">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02669166666666667</v>
+        <v>0.380615</v>
       </c>
       <c r="N8">
-        <v>0.08007499999999999</v>
+        <v>1.141845</v>
       </c>
       <c r="O8">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="P8">
-        <v>0.002946855435681398</v>
+        <v>0.04044104717146424</v>
       </c>
       <c r="Q8">
-        <v>0.01527879934722222</v>
+        <v>0.2178710039416667</v>
       </c>
       <c r="R8">
-        <v>0.137509194125</v>
+        <v>1.960839035475</v>
       </c>
       <c r="S8">
-        <v>0.0002999799004486304</v>
+        <v>0.002718711931003972</v>
       </c>
       <c r="T8">
-        <v>0.0002999799004486304</v>
+        <v>0.002718711931003971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H9">
         <v>1.717255</v>
       </c>
       <c r="I9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J9">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>14.597777</v>
       </c>
       <c r="O9">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="P9">
-        <v>0.5372155916492649</v>
+        <v>0.5170135948885495</v>
       </c>
       <c r="Q9">
         <v>2.785345060237222</v>
@@ -1004,10 +1004,10 @@
         <v>25.068105542135</v>
       </c>
       <c r="S9">
-        <v>0.05468672733351617</v>
+        <v>0.03475703838615168</v>
       </c>
       <c r="T9">
-        <v>0.05468672733351618</v>
+        <v>0.03475703838615168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5724183333333333</v>
+        <v>0.5724183333333334</v>
       </c>
       <c r="H10">
         <v>1.717255</v>
       </c>
       <c r="I10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252778</v>
       </c>
       <c r="J10">
-        <v>0.1017966123537602</v>
+        <v>0.06722654632252777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.495181</v>
       </c>
       <c r="O10">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="P10">
-        <v>0.4598375529150536</v>
+        <v>0.4425453579399863</v>
       </c>
       <c r="Q10">
         <v>2.384156894239444</v>
@@ -1066,10 +1066,10 @@
         <v>21.457412048155</v>
       </c>
       <c r="S10">
-        <v>0.04680990511979542</v>
+        <v>0.02975079600537213</v>
       </c>
       <c r="T10">
-        <v>0.04680990511979542</v>
+        <v>0.02975079600537212</v>
       </c>
     </row>
   </sheetData>
